--- a/Лаб_5/Таблица требований.xlsx
+++ b/Лаб_5/Таблица требований.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2575CA9E-7D39-4ACF-9D2F-2A4B6F020BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A9508-FB08-4D59-9B2F-6036A77DB833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Роль</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Функц</t>
   </si>
   <si>
-    <t>Срочно</t>
-  </si>
-  <si>
     <t>Создание панели администратора</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
     <t>Реализация аутентификации и ограничения доступа к панели админ.</t>
   </si>
   <si>
-    <t>важно</t>
-  </si>
-  <si>
-    <t>срочно</t>
-  </si>
-  <si>
     <t>Функц/нефунк</t>
   </si>
   <si>
@@ -76,18 +67,9 @@
     <t>Реализация поиска по товарам</t>
   </si>
   <si>
-    <t>средне</t>
-  </si>
-  <si>
-    <t>не срочно</t>
-  </si>
-  <si>
     <t>Возможность удаления зарегистрированного участника</t>
   </si>
   <si>
-    <t>нет</t>
-  </si>
-  <si>
     <t>Возможность назначения модератора</t>
   </si>
   <si>
@@ -97,9 +79,6 @@
     <t>Возможность просмотра всех товаров</t>
   </si>
   <si>
-    <t>Создание данной роли не является приоритетной</t>
-  </si>
-  <si>
     <t>Реализован весь доступный функционал администратора, за исключением взаимодействия с анкетами регистрации</t>
   </si>
   <si>
@@ -137,6 +116,24 @@
   </si>
   <si>
     <t>менеджер</t>
+  </si>
+  <si>
+    <t>создание роли</t>
+  </si>
+  <si>
+    <t>Не важно</t>
+  </si>
+  <si>
+    <t>Не  важно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важно </t>
+  </si>
+  <si>
+    <t>Срочность: 1- срочно, 2 - не срочно</t>
+  </si>
+  <si>
+    <t>Приоритет : 1- важно, 2-средняя важность, 3 - не важно</t>
   </si>
 </sst>
 </file>
@@ -234,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +266,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -278,14 +281,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,9 +567,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -581,9 +581,10 @@
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -591,10 +592,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -603,8 +604,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -616,334 +617,356 @@
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
       </c>
       <c r="F8" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
       <c r="B10" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="8"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
       </c>
       <c r="F18" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
       </c>
       <c r="F19" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
       </c>
       <c r="F20" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2</v>
       </c>
       <c r="F21" s="10">
         <v>2</v>

--- a/Лаб_5/Таблица требований.xlsx
+++ b/Лаб_5/Таблица требований.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A9508-FB08-4D59-9B2F-6036A77DB833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44424D3-A51B-4652-9EFA-F57617C25A28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,6 +266,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,9 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +605,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -623,12 +623,12 @@
       <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -644,12 +644,12 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
@@ -685,7 +685,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
@@ -703,7 +703,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -721,7 +721,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -739,7 +739,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -757,7 +757,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -775,7 +775,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -793,7 +793,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
@@ -847,7 +847,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
@@ -865,7 +865,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -883,7 +883,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
@@ -901,7 +901,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
@@ -937,7 +937,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>30</v>
       </c>
